--- a/data/Szenario_Link/Global_Parameters.xlsx
+++ b/data/Szenario_Link/Global_Parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Trafo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F886AE-FD83-4614-9021-2818C6EE58A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8174D8-D9F7-4908-BC5F-42F90F5BC241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>[h]</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Scaling factor for power values in input data (relative to 1MW)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>9</v>
@@ -1098,12 +1101,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1249,6 +1246,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
@@ -1258,22 +1261,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1289,4 +1276,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>